--- a/Kitchen_Devices/IDsMapping.xlsx
+++ b/Kitchen_Devices/IDsMapping.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roth_\Uni\1.Semester_WS1920\Algorithmen MMI\GitHub\Smart_Kitchen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roth_\Uni\1.Semester_WS1920\Algorithmen MMI\GitHub\MMI-19-20\Kitchen_Devices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413FE719-46A0-427C-85B2-4BAFDD350CC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35DE153-B582-40AB-B94A-129BF330EDEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{3CCBDE61-6562-4498-99E4-B5911D7CAF8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3CCBDE61-6562-4498-99E4-B5911D7CAF8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$C$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$C$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,12 +63,6 @@
     <t>Nudelholz</t>
   </si>
   <si>
-    <t>SchüsselTomaten</t>
-  </si>
-  <si>
-    <t>SchüsselSalat</t>
-  </si>
-  <si>
     <t>Öl</t>
   </si>
   <si>
@@ -99,24 +93,15 @@
     <t>118337641715</t>
   </si>
   <si>
-    <t>GefäßFürGemüse</t>
-  </si>
-  <si>
     <t>Kuchen:</t>
   </si>
   <si>
     <t>Pizza:</t>
   </si>
   <si>
-    <t>Rührschüssel</t>
-  </si>
-  <si>
     <t>Sparschäler</t>
   </si>
   <si>
-    <t>SchüsselGuss</t>
-  </si>
-  <si>
     <t>Topf</t>
   </si>
   <si>
@@ -184,6 +169,21 @@
   </si>
   <si>
     <t>718631362413</t>
+  </si>
+  <si>
+    <t>Schüssel1</t>
+  </si>
+  <si>
+    <t>Salatschüssel</t>
+  </si>
+  <si>
+    <t>Schüssel2</t>
+  </si>
+  <si>
+    <t>Pfanne</t>
+  </si>
+  <si>
+    <t>Messbecher</t>
   </si>
 </sst>
 </file>
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D55858-6FAC-4A98-9878-983856C9915C}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,237 +574,237 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>36</v>
+      <c r="B24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
